--- a/Code/Results/Cases/Case_3_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_200/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.454585048679576</v>
+        <v>0.4562899804834331</v>
       </c>
       <c r="C2">
-        <v>0.28725672514922</v>
+        <v>0.1465860509869259</v>
       </c>
       <c r="D2">
-        <v>0.05328292702925097</v>
+        <v>0.01678011955571179</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3621946259861275</v>
+        <v>0.3537062187669235</v>
       </c>
       <c r="G2">
-        <v>0.2591795886115236</v>
+        <v>0.2108695015573332</v>
       </c>
       <c r="H2">
-        <v>0.189767696957766</v>
+        <v>0.3678114218550235</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.812033409038506</v>
+        <v>0.8957762817057073</v>
       </c>
       <c r="N2">
-        <v>0.4920158772544809</v>
+        <v>0.8708063197184401</v>
       </c>
       <c r="O2">
-        <v>0.8985007420990598</v>
+        <v>1.067401165052189</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.274622424793961</v>
+        <v>0.3981133288916965</v>
       </c>
       <c r="C3">
-        <v>0.2629657943097499</v>
+        <v>0.1379728245648408</v>
       </c>
       <c r="D3">
-        <v>0.04661271493679209</v>
+        <v>0.01463514096519702</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3267108307927558</v>
+        <v>0.3475673889692246</v>
       </c>
       <c r="G3">
-        <v>0.2320421634753913</v>
+        <v>0.2059664150317246</v>
       </c>
       <c r="H3">
-        <v>0.1821228975987665</v>
+        <v>0.3688040511719777</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.396138097743417</v>
+        <v>0.797030592983532</v>
       </c>
       <c r="N3">
-        <v>0.5190070148733099</v>
+        <v>0.881288621807002</v>
       </c>
       <c r="O3">
-        <v>0.8246345418620962</v>
+        <v>1.058840944304848</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.16374920153109</v>
+        <v>0.3622529221879347</v>
       </c>
       <c r="C4">
-        <v>0.2479405505958709</v>
+        <v>0.1326524364614272</v>
       </c>
       <c r="D4">
-        <v>0.04250624575824702</v>
+        <v>0.0133131152205479</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3056159510085266</v>
+        <v>0.3440713489052953</v>
       </c>
       <c r="G4">
-        <v>0.2159921676916596</v>
+        <v>0.2031548690455836</v>
       </c>
       <c r="H4">
-        <v>0.1778203712058968</v>
+        <v>0.3696172956414046</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.149243472802809</v>
+        <v>0.7369136299699051</v>
       </c>
       <c r="N4">
-        <v>0.5364718309735643</v>
+        <v>0.8881390974238705</v>
       </c>
       <c r="O4">
-        <v>0.7813899565771294</v>
+        <v>1.054424653183546</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.118472203008793</v>
+        <v>0.3476056276084876</v>
       </c>
       <c r="C5">
-        <v>0.2417921334402706</v>
+        <v>0.1304765880226881</v>
       </c>
       <c r="D5">
-        <v>0.04082997827485713</v>
+        <v>0.01277316082469326</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2971806662896768</v>
+        <v>0.3427153122120927</v>
       </c>
       <c r="G5">
-        <v>0.2095931054025257</v>
+        <v>0.2020590061463068</v>
       </c>
       <c r="H5">
-        <v>0.1761601621348987</v>
+        <v>0.3699999372135068</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.050400768326185</v>
+        <v>0.7125387286685054</v>
       </c>
       <c r="N5">
-        <v>0.5438073095635012</v>
+        <v>0.8910349203842038</v>
       </c>
       <c r="O5">
-        <v>0.7642600790449876</v>
+        <v>1.05283576999156</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.110948206699533</v>
+        <v>0.3451714453411796</v>
       </c>
       <c r="C6">
-        <v>0.2407697140476301</v>
+        <v>0.1301148297093135</v>
       </c>
       <c r="D6">
-        <v>0.04055146027983625</v>
+        <v>0.01268342938463007</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2957893549143762</v>
+        <v>0.3424942860682094</v>
       </c>
       <c r="G6">
-        <v>0.2085387365822768</v>
+        <v>0.20188004576233</v>
       </c>
       <c r="H6">
-        <v>0.1758899596837011</v>
+        <v>0.3700665691796559</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.034085255118612</v>
+        <v>0.7084985706507467</v>
       </c>
       <c r="N6">
-        <v>0.545038384496106</v>
+        <v>0.8915220635787833</v>
       </c>
       <c r="O6">
-        <v>0.761444370338026</v>
+        <v>1.052584657815359</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.163138967207999</v>
+        <v>0.3620555192144082</v>
       </c>
       <c r="C7">
-        <v>0.2478577313729886</v>
+        <v>0.1326231232367405</v>
       </c>
       <c r="D7">
-        <v>0.04248365069737048</v>
+        <v>0.01330583808697838</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3055015543624577</v>
+        <v>0.3440527831511488</v>
       </c>
       <c r="G7">
-        <v>0.2159053110303617</v>
+        <v>0.2031398881769846</v>
       </c>
       <c r="H7">
-        <v>0.1777976108563308</v>
+        <v>0.3696222486216385</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.147903723270076</v>
+        <v>0.7365844100921493</v>
       </c>
       <c r="N7">
-        <v>0.5365698830331631</v>
+        <v>0.8881777295917246</v>
       </c>
       <c r="O7">
-        <v>0.7811569905894089</v>
+        <v>1.054402371948896</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.392611436295283</v>
+        <v>0.4362603953183566</v>
       </c>
       <c r="C8">
-        <v>0.2789056146016122</v>
+        <v>0.1436229690972652</v>
       </c>
       <c r="D8">
-        <v>0.05098524863831244</v>
+        <v>0.0160415916299641</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3498080045678051</v>
+        <v>0.3515327929072072</v>
       </c>
       <c r="G8">
-        <v>0.2496876398293182</v>
+        <v>0.2091375184998228</v>
       </c>
       <c r="H8">
-        <v>0.1870472247327442</v>
+        <v>0.3681113875196971</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.666641787778019</v>
+        <v>0.8616186723733534</v>
       </c>
       <c r="N8">
-        <v>0.5011336243163171</v>
+        <v>0.8743346405874632</v>
       </c>
       <c r="O8">
-        <v>0.8725702674916676</v>
+        <v>1.064275092839594</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.839654389702872</v>
+        <v>0.5806194210595379</v>
       </c>
       <c r="C9">
-        <v>0.3387938724608546</v>
+        <v>0.1649306866331415</v>
       </c>
       <c r="D9">
-        <v>0.06757455817062663</v>
+        <v>0.02136523918623823</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4428240703063366</v>
+        <v>0.3683738152797744</v>
       </c>
       <c r="G9">
-        <v>0.3214117000983236</v>
+        <v>0.222486079534832</v>
       </c>
       <c r="H9">
-        <v>0.208550499303513</v>
+        <v>0.3667658089030397</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.770637487086873</v>
+        <v>1.111161493213132</v>
       </c>
       <c r="N9">
-        <v>0.4389977511874008</v>
+        <v>0.8504748089005574</v>
       </c>
       <c r="O9">
-        <v>1.070422341334137</v>
+        <v>1.090317445466923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.166281826312314</v>
+        <v>0.6859201553729122</v>
       </c>
       <c r="C10">
-        <v>0.3819810420298779</v>
+        <v>0.1804125951514095</v>
       </c>
       <c r="D10">
-        <v>0.0797177175582604</v>
+        <v>0.02524979145800899</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5158771526645225</v>
+        <v>0.3820800932664241</v>
       </c>
       <c r="G10">
-        <v>0.3783951843376911</v>
+        <v>0.2332740052372628</v>
       </c>
       <c r="H10">
-        <v>0.2267946306855322</v>
+        <v>0.3667642582358326</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.668874528243634</v>
+        <v>1.297561531885037</v>
       </c>
       <c r="N10">
-        <v>0.3982216397147909</v>
+        <v>0.8349473252965254</v>
       </c>
       <c r="O10">
-        <v>1.229957758268426</v>
+        <v>1.113554893052395</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.314438042892164</v>
+        <v>0.7336481379890643</v>
       </c>
       <c r="C11">
-        <v>0.401388231896135</v>
+        <v>0.1874155911477828</v>
       </c>
       <c r="D11">
-        <v>0.08523236836141024</v>
+        <v>0.02701084061423131</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5503804772284155</v>
+        <v>0.3886068839197065</v>
       </c>
       <c r="G11">
-        <v>0.4054908300695814</v>
+        <v>0.2383975662611704</v>
       </c>
       <c r="H11">
-        <v>0.2357241092575038</v>
+        <v>0.3669781706024509</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.106884338366768</v>
+        <v>1.383116039352871</v>
       </c>
       <c r="N11">
-        <v>0.3808171310136572</v>
+        <v>0.8283181222077971</v>
       </c>
       <c r="O11">
-        <v>1.306331174904585</v>
+        <v>1.125024214724903</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.37047070308796</v>
+        <v>0.7516953338143821</v>
       </c>
       <c r="C12">
-        <v>0.4086954895210226</v>
+        <v>0.1900614723747935</v>
       </c>
       <c r="D12">
-        <v>0.0873191531586528</v>
+        <v>0.02767679747920937</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5636521896527569</v>
+        <v>0.3911204771691033</v>
       </c>
       <c r="G12">
-        <v>0.4159432480379337</v>
+        <v>0.2403690011930877</v>
       </c>
       <c r="H12">
-        <v>0.2392054295923884</v>
+        <v>0.3670900501605843</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.27816190630854</v>
+        <v>1.415629945896626</v>
       </c>
       <c r="N12">
-        <v>0.3743982555534942</v>
+        <v>0.8258702848526411</v>
       </c>
       <c r="O12">
-        <v>1.335867154252412</v>
+        <v>1.129497019370433</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.358406422686812</v>
+        <v>0.747809741031233</v>
       </c>
       <c r="C13">
-        <v>0.4071237438983246</v>
+        <v>0.1894919058455002</v>
       </c>
       <c r="D13">
-        <v>0.08686979697009889</v>
+        <v>0.02753341311166935</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5607843196753635</v>
+        <v>0.3905772587870899</v>
       </c>
       <c r="G13">
-        <v>0.4136831938374712</v>
+        <v>0.2399430245094436</v>
       </c>
       <c r="H13">
-        <v>0.2384510598608927</v>
+        <v>0.3670645814740823</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.241010848563747</v>
+        <v>1.408622210535825</v>
       </c>
       <c r="N13">
-        <v>0.3757729222660799</v>
+        <v>0.826394690073613</v>
       </c>
       <c r="O13">
-        <v>1.329477502251166</v>
+        <v>1.128527949237252</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.319049375438055</v>
+        <v>0.7351334276168586</v>
       </c>
       <c r="C14">
-        <v>0.4019902932537889</v>
+        <v>0.1876333912559858</v>
       </c>
       <c r="D14">
-        <v>0.08540408066902927</v>
+        <v>0.0270656478597715</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5514680747406615</v>
+        <v>0.3888128357180136</v>
       </c>
       <c r="G14">
-        <v>0.4063467665947513</v>
+        <v>0.2385591299929928</v>
       </c>
       <c r="H14">
-        <v>0.2360084594442213</v>
+        <v>0.3669867561285542</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.120858942937531</v>
+        <v>1.385788607283686</v>
       </c>
       <c r="N14">
-        <v>0.3802855624782637</v>
+        <v>0.8281154843414669</v>
       </c>
       <c r="O14">
-        <v>1.308748364240245</v>
+        <v>1.12538959484732</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.29493245576424</v>
+        <v>0.727365347151931</v>
       </c>
       <c r="C15">
-        <v>0.3988402009499623</v>
+        <v>0.186494207606728</v>
       </c>
       <c r="D15">
-        <v>0.08450608591314079</v>
+        <v>0.02677900777486997</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5457891843229064</v>
+        <v>0.3877375529953255</v>
       </c>
       <c r="G15">
-        <v>0.4018787256773919</v>
+        <v>0.2377155301605427</v>
       </c>
       <c r="H15">
-        <v>0.2345256052263522</v>
+        <v>0.3669431071829621</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.048008335723921</v>
+        <v>1.371817717419873</v>
       </c>
       <c r="N15">
-        <v>0.3830722708080145</v>
+        <v>0.8291776609478632</v>
       </c>
       <c r="O15">
-        <v>1.296133462516082</v>
+        <v>1.12348415514478</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.156590163339587</v>
+        <v>0.6827974052305876</v>
       </c>
       <c r="C16">
-        <v>0.3807073378665109</v>
+        <v>0.1799541082153553</v>
       </c>
       <c r="D16">
-        <v>0.07935712411444484</v>
+        <v>0.02513457720902323</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5136497768060053</v>
+        <v>0.3816594301615339</v>
       </c>
       <c r="G16">
-        <v>0.3766499388986517</v>
+        <v>0.2329435320819044</v>
       </c>
       <c r="H16">
-        <v>0.2262245177688413</v>
+        <v>0.3667545983951612</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.640935052086874</v>
+        <v>1.291986231332586</v>
       </c>
       <c r="N16">
-        <v>0.3993827249495112</v>
+        <v>0.8353893025650407</v>
       </c>
       <c r="O16">
-        <v>1.225048693617595</v>
+        <v>1.11282346171825</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.07160675986546</v>
+        <v>0.6554109242825916</v>
       </c>
       <c r="C17">
-        <v>0.3695175402080508</v>
+        <v>0.175931577042121</v>
       </c>
       <c r="D17">
-        <v>0.07619594055672962</v>
+        <v>0.02412419083734818</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.494274473166179</v>
+        <v>0.3780054821158387</v>
       </c>
       <c r="G17">
-        <v>0.3614889418344376</v>
+        <v>0.2300715383415763</v>
       </c>
       <c r="H17">
-        <v>0.2212997326745096</v>
+        <v>0.3666939328959984</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.39948321890094</v>
+        <v>1.243211798953737</v>
       </c>
       <c r="N17">
-        <v>0.40968708077461</v>
+        <v>0.8393112133709906</v>
       </c>
       <c r="O17">
-        <v>1.182459718477276</v>
+        <v>1.106513895326373</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.022687026839634</v>
+        <v>0.6396426622316937</v>
       </c>
       <c r="C18">
-        <v>0.3630595299611628</v>
+        <v>0.1736141937588798</v>
       </c>
       <c r="D18">
-        <v>0.07437684767636199</v>
+        <v>0.02354247619299343</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4832484007687512</v>
+        <v>0.3759312822167544</v>
       </c>
       <c r="G18">
-        <v>0.3528776465344379</v>
+        <v>0.2284399711133887</v>
       </c>
       <c r="H18">
-        <v>0.2185258194949853</v>
+        <v>0.3666792397170013</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.263286563179406</v>
+        <v>1.215229162080149</v>
       </c>
       <c r="N18">
-        <v>0.4157211969234353</v>
+        <v>0.8416078707879748</v>
       </c>
       <c r="O18">
-        <v>1.158316744269058</v>
+        <v>1.102969344761902</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.006117066573921</v>
+        <v>0.6343010444263086</v>
       </c>
       <c r="C19">
-        <v>0.3608693865002124</v>
+        <v>0.17282893548267</v>
       </c>
       <c r="D19">
-        <v>0.07376078847456569</v>
+        <v>0.02334542153770514</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4795347838697666</v>
+        <v>0.3752337063899773</v>
       </c>
       <c r="G19">
-        <v>0.3499800619725733</v>
+        <v>0.2278910362272057</v>
       </c>
       <c r="H19">
-        <v>0.2175964353979367</v>
+        <v>0.3666777338099223</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.217602028408876</v>
+        <v>1.205766729017441</v>
       </c>
       <c r="N19">
-        <v>0.4177824532790098</v>
+        <v>0.8423924991671399</v>
       </c>
       <c r="O19">
-        <v>1.150201047127496</v>
+        <v>1.101783728746398</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.080657531583398</v>
+        <v>0.658327956938308</v>
       </c>
       <c r="C20">
-        <v>0.3707110309896393</v>
+        <v>0.1763601703812014</v>
       </c>
       <c r="D20">
-        <v>0.07653254404991117</v>
+        <v>0.02423180720340667</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.496324626641595</v>
+        <v>0.378391609060543</v>
       </c>
       <c r="G20">
-        <v>0.3630914269214855</v>
+        <v>0.2303751618311622</v>
       </c>
       <c r="H20">
-        <v>0.2218178461766485</v>
+        <v>0.3666983001184718</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.424901250225233</v>
+        <v>1.24839650937912</v>
       </c>
       <c r="N20">
-        <v>0.408579003659824</v>
+        <v>0.8388894882607119</v>
       </c>
       <c r="O20">
-        <v>1.186956377974667</v>
+        <v>1.107176806298696</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.330611517201419</v>
+        <v>0.7388574942246464</v>
       </c>
       <c r="C21">
-        <v>0.4034993177462809</v>
+        <v>0.1881794471310911</v>
       </c>
       <c r="D21">
-        <v>0.08583463946690983</v>
+        <v>0.02720306701489505</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5541986881965641</v>
+        <v>0.3893299479120742</v>
       </c>
       <c r="G21">
-        <v>0.4084962442793625</v>
+        <v>0.2389647637010199</v>
       </c>
       <c r="H21">
-        <v>0.2367231184598069</v>
+        <v>0.3670087772532895</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.155992400989575</v>
+        <v>1.39249217817077</v>
       </c>
       <c r="N21">
-        <v>0.3789553715184653</v>
+        <v>0.8276083488095693</v>
       </c>
       <c r="O21">
-        <v>1.314819728120966</v>
+        <v>1.126307884377013</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.493549322984109</v>
+        <v>0.7913339541170785</v>
       </c>
       <c r="C22">
-        <v>0.4246793433503342</v>
+        <v>0.1958689183335593</v>
       </c>
       <c r="D22">
-        <v>0.09190521431953158</v>
+        <v>0.0291396078243622</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5932370390879882</v>
+        <v>0.3967238620839524</v>
       </c>
       <c r="G22">
-        <v>0.4393027357071446</v>
+        <v>0.2447608187170403</v>
       </c>
       <c r="H22">
-        <v>0.2470522299027067</v>
+        <v>0.3673916650842841</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.666180090255679</v>
+        <v>1.487348101450095</v>
       </c>
       <c r="N22">
-        <v>0.3605991607050569</v>
+        <v>0.8205997816700474</v>
       </c>
       <c r="O22">
-        <v>1.402010009417921</v>
+        <v>1.139566877046434</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.406629426860945</v>
+        <v>0.7633408414161522</v>
       </c>
       <c r="C23">
-        <v>0.4134010385327258</v>
+        <v>0.1917682071162403</v>
       </c>
       <c r="D23">
-        <v>0.08866613375566601</v>
+        <v>0.02810654350477648</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5722818611488449</v>
+        <v>0.3927551374498748</v>
       </c>
       <c r="G23">
-        <v>0.4227485961835384</v>
+        <v>0.2416506189734235</v>
       </c>
       <c r="H23">
-        <v>0.2414822156864318</v>
+        <v>0.3671708384857624</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.390431749045163</v>
+        <v>1.4366570470808</v>
       </c>
       <c r="N23">
-        <v>0.370302041716549</v>
+        <v>0.8243070360683618</v>
       </c>
       <c r="O23">
-        <v>1.355117970023969</v>
+        <v>1.132421015553007</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.076565869063558</v>
+        <v>0.6570092392864808</v>
       </c>
       <c r="C24">
-        <v>0.3701715306654023</v>
+        <v>0.1761664181888705</v>
       </c>
       <c r="D24">
-        <v>0.07638037085391147</v>
+        <v>0.0241831564266235</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4953974018527774</v>
+        <v>0.3782169585229767</v>
       </c>
       <c r="G24">
-        <v>0.3623666181770204</v>
+        <v>0.2302378326774743</v>
       </c>
       <c r="H24">
-        <v>0.2215834289266212</v>
+        <v>0.3666962628288104</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.413401690781896</v>
+        <v>1.246052320310824</v>
       </c>
       <c r="N24">
-        <v>0.4090796232378153</v>
+        <v>0.8390800196811838</v>
       </c>
       <c r="O24">
-        <v>1.184922378032724</v>
+        <v>1.10687684605486</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.71902978837079</v>
+        <v>0.5416959624907065</v>
       </c>
       <c r="C25">
-        <v>0.3227176190053029</v>
+        <v>0.1591958358306584</v>
       </c>
       <c r="D25">
-        <v>0.06309485745349264</v>
+        <v>0.01992962688948552</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.416909147124727</v>
+        <v>0.3635843719167298</v>
       </c>
       <c r="G25">
-        <v>0.3013298868290235</v>
+        <v>0.2187036582495665</v>
       </c>
       <c r="H25">
-        <v>0.2023345329714203</v>
+        <v>0.3669565714952654</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.459598260935124</v>
+        <v>1.043146084565535</v>
       </c>
       <c r="N25">
-        <v>0.4549801998332086</v>
+        <v>0.8565778325861473</v>
       </c>
       <c r="O25">
-        <v>1.014631435726074</v>
+        <v>1.082553779536084</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_200/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4562899804834331</v>
+        <v>1.454585048679519</v>
       </c>
       <c r="C2">
-        <v>0.1465860509869259</v>
+        <v>0.2872567251489926</v>
       </c>
       <c r="D2">
-        <v>0.01678011955571179</v>
+        <v>0.05328292702913018</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3537062187669235</v>
+        <v>0.3621946259861346</v>
       </c>
       <c r="G2">
-        <v>0.2108695015573332</v>
+        <v>0.2591795886115449</v>
       </c>
       <c r="H2">
-        <v>0.3678114218550235</v>
+        <v>0.189767696957766</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8957762817057073</v>
+        <v>2.812033409038492</v>
       </c>
       <c r="N2">
-        <v>0.8708063197184401</v>
+        <v>0.4920158772545307</v>
       </c>
       <c r="O2">
-        <v>1.067401165052189</v>
+        <v>0.8985007420991309</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3981133288916965</v>
+        <v>1.274622424793961</v>
       </c>
       <c r="C3">
-        <v>0.1379728245648408</v>
+        <v>0.2629657943099915</v>
       </c>
       <c r="D3">
-        <v>0.01463514096519702</v>
+        <v>0.0466127149368063</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3475673889692246</v>
+        <v>0.3267108307927629</v>
       </c>
       <c r="G3">
-        <v>0.2059664150317246</v>
+        <v>0.2320421634753842</v>
       </c>
       <c r="H3">
-        <v>0.3688040511719777</v>
+        <v>0.1821228975987594</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.797030592983532</v>
+        <v>2.396138097743432</v>
       </c>
       <c r="N3">
-        <v>0.881288621807002</v>
+        <v>0.5190070148733703</v>
       </c>
       <c r="O3">
-        <v>1.058840944304848</v>
+        <v>0.824634541862082</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3622529221879347</v>
+        <v>1.163749201531317</v>
       </c>
       <c r="C4">
-        <v>0.1326524364614272</v>
+        <v>0.2479405505960415</v>
       </c>
       <c r="D4">
-        <v>0.0133131152205479</v>
+        <v>0.04250624575824702</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3440713489052953</v>
+        <v>0.3056159510085337</v>
       </c>
       <c r="G4">
-        <v>0.2031548690455836</v>
+        <v>0.2159921676915886</v>
       </c>
       <c r="H4">
-        <v>0.3696172956414046</v>
+        <v>0.1778203712057973</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7369136299699051</v>
+        <v>2.149243472802823</v>
       </c>
       <c r="N4">
-        <v>0.8881390974238705</v>
+        <v>0.5364718309735537</v>
       </c>
       <c r="O4">
-        <v>1.054424653183546</v>
+        <v>0.7813899565771294</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3476056276084876</v>
+        <v>1.118472203008622</v>
       </c>
       <c r="C5">
-        <v>0.1304765880226881</v>
+        <v>0.2417921334405264</v>
       </c>
       <c r="D5">
-        <v>0.01277316082469326</v>
+        <v>0.04082997827481449</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3427153122120927</v>
+        <v>0.297180666289691</v>
       </c>
       <c r="G5">
-        <v>0.2020590061463068</v>
+        <v>0.2095931054024831</v>
       </c>
       <c r="H5">
-        <v>0.3699999372135068</v>
+        <v>0.1761601621347921</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7125387286685054</v>
+        <v>2.050400768326156</v>
       </c>
       <c r="N5">
-        <v>0.8910349203842038</v>
+        <v>0.5438073095635012</v>
       </c>
       <c r="O5">
-        <v>1.05283576999156</v>
+        <v>0.7642600790450018</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3451714453411796</v>
+        <v>1.110948206699533</v>
       </c>
       <c r="C6">
-        <v>0.1301148297093135</v>
+        <v>0.240769714047417</v>
       </c>
       <c r="D6">
-        <v>0.01268342938463007</v>
+        <v>0.04055146027980783</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3424942860682094</v>
+        <v>0.295789354914362</v>
       </c>
       <c r="G6">
-        <v>0.20188004576233</v>
+        <v>0.2085387365822768</v>
       </c>
       <c r="H6">
-        <v>0.3700665691796559</v>
+        <v>0.1758899596837011</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7084985706507467</v>
+        <v>2.034085255118598</v>
       </c>
       <c r="N6">
-        <v>0.8915220635787833</v>
+        <v>0.545038384496106</v>
       </c>
       <c r="O6">
-        <v>1.052584657815359</v>
+        <v>0.7614443703380687</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3620555192144082</v>
+        <v>1.163138967207999</v>
       </c>
       <c r="C7">
-        <v>0.1326231232367405</v>
+        <v>0.2478577313732302</v>
       </c>
       <c r="D7">
-        <v>0.01330583808697838</v>
+        <v>0.04248365069740601</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3440527831511488</v>
+        <v>0.3055015543624577</v>
       </c>
       <c r="G7">
-        <v>0.2031398881769846</v>
+        <v>0.2159053110303617</v>
       </c>
       <c r="H7">
-        <v>0.3696222486216385</v>
+        <v>0.1777976108563308</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7365844100921493</v>
+        <v>2.147903723270062</v>
       </c>
       <c r="N7">
-        <v>0.8881777295917246</v>
+        <v>0.5365698830331702</v>
       </c>
       <c r="O7">
-        <v>1.054402371948896</v>
+        <v>0.7811569905893521</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4362603953183566</v>
+        <v>1.392611436295425</v>
       </c>
       <c r="C8">
-        <v>0.1436229690972652</v>
+        <v>0.2789056146016122</v>
       </c>
       <c r="D8">
-        <v>0.0160415916299641</v>
+        <v>0.05098524863815612</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3515327929072072</v>
+        <v>0.3498080045678051</v>
       </c>
       <c r="G8">
-        <v>0.2091375184998228</v>
+        <v>0.2496876398294248</v>
       </c>
       <c r="H8">
-        <v>0.3681113875196971</v>
+        <v>0.1870472247327442</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8616186723733534</v>
+        <v>2.666641787778005</v>
       </c>
       <c r="N8">
-        <v>0.8743346405874632</v>
+        <v>0.5011336243163136</v>
       </c>
       <c r="O8">
-        <v>1.064275092839594</v>
+        <v>0.8725702674917812</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5806194210595379</v>
+        <v>1.839654389702901</v>
       </c>
       <c r="C9">
-        <v>0.1649306866331415</v>
+        <v>0.3387938724608404</v>
       </c>
       <c r="D9">
-        <v>0.02136523918623823</v>
+        <v>0.06757455817062663</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3683738152797744</v>
+        <v>0.4428240703063508</v>
       </c>
       <c r="G9">
-        <v>0.222486079534832</v>
+        <v>0.3214117000983805</v>
       </c>
       <c r="H9">
-        <v>0.3667658089030397</v>
+        <v>0.208550499303513</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.111161493213132</v>
+        <v>3.770637487086859</v>
       </c>
       <c r="N9">
-        <v>0.8504748089005574</v>
+        <v>0.4389977511873937</v>
       </c>
       <c r="O9">
-        <v>1.090317445466923</v>
+        <v>1.07042234133425</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6859201553729122</v>
+        <v>2.166281826312201</v>
       </c>
       <c r="C10">
-        <v>0.1804125951514095</v>
+        <v>0.3819810420297927</v>
       </c>
       <c r="D10">
-        <v>0.02524979145800899</v>
+        <v>0.07971771755824619</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3820800932664241</v>
+        <v>0.5158771526645296</v>
       </c>
       <c r="G10">
-        <v>0.2332740052372628</v>
+        <v>0.3783951843377338</v>
       </c>
       <c r="H10">
-        <v>0.3667642582358326</v>
+        <v>0.2267946306855464</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.297561531885037</v>
+        <v>4.668874528243634</v>
       </c>
       <c r="N10">
-        <v>0.8349473252965254</v>
+        <v>0.3982216397148477</v>
       </c>
       <c r="O10">
-        <v>1.113554893052395</v>
+        <v>1.229957758268455</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7336481379890643</v>
+        <v>2.31443804289222</v>
       </c>
       <c r="C11">
-        <v>0.1874155911477828</v>
+        <v>0.4013882318958508</v>
       </c>
       <c r="D11">
-        <v>0.02701084061423131</v>
+        <v>0.08523236836158077</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3886068839197065</v>
+        <v>0.5503804772284226</v>
       </c>
       <c r="G11">
-        <v>0.2383975662611704</v>
+        <v>0.4054908300696098</v>
       </c>
       <c r="H11">
-        <v>0.3669781706024509</v>
+        <v>0.2357241092575038</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.383116039352871</v>
+        <v>5.106884338366754</v>
       </c>
       <c r="N11">
-        <v>0.8283181222077971</v>
+        <v>0.3808171310136004</v>
       </c>
       <c r="O11">
-        <v>1.125024214724903</v>
+        <v>1.306331174904585</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7516953338143821</v>
+        <v>2.37047070308796</v>
       </c>
       <c r="C12">
-        <v>0.1900614723747935</v>
+        <v>0.4086954895209942</v>
       </c>
       <c r="D12">
-        <v>0.02767679747920937</v>
+        <v>0.08731915315857464</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3911204771691033</v>
+        <v>0.5636521896527427</v>
       </c>
       <c r="G12">
-        <v>0.2403690011930877</v>
+        <v>0.4159432480379479</v>
       </c>
       <c r="H12">
-        <v>0.3670900501605843</v>
+        <v>0.2392054295923884</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.415629945896626</v>
+        <v>5.278161906308512</v>
       </c>
       <c r="N12">
-        <v>0.8258702848526411</v>
+        <v>0.3743982555534942</v>
       </c>
       <c r="O12">
-        <v>1.129497019370433</v>
+        <v>1.335867154252412</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.747809741031233</v>
+        <v>2.358406422686755</v>
       </c>
       <c r="C13">
-        <v>0.1894919058455002</v>
+        <v>0.4071237438980688</v>
       </c>
       <c r="D13">
-        <v>0.02753341311166935</v>
+        <v>0.08686979697021968</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3905772587870899</v>
+        <v>0.5607843196753635</v>
       </c>
       <c r="G13">
-        <v>0.2399430245094436</v>
+        <v>0.4136831938375281</v>
       </c>
       <c r="H13">
-        <v>0.3670645814740823</v>
+        <v>0.2384510598608927</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.408622210535825</v>
+        <v>5.241010848563789</v>
       </c>
       <c r="N13">
-        <v>0.826394690073613</v>
+        <v>0.3757729222660942</v>
       </c>
       <c r="O13">
-        <v>1.128527949237252</v>
+        <v>1.329477502251109</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7351334276168586</v>
+        <v>2.319049375438055</v>
       </c>
       <c r="C14">
-        <v>0.1876333912559858</v>
+        <v>0.4019902932535899</v>
       </c>
       <c r="D14">
-        <v>0.0270656478597715</v>
+        <v>0.08540408066915006</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3888128357180136</v>
+        <v>0.5514680747406615</v>
       </c>
       <c r="G14">
-        <v>0.2385591299929928</v>
+        <v>0.4063467665946945</v>
       </c>
       <c r="H14">
-        <v>0.3669867561285542</v>
+        <v>0.2360084594442213</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.385788607283686</v>
+        <v>5.120858942937517</v>
       </c>
       <c r="N14">
-        <v>0.8281154843414669</v>
+        <v>0.3802855624782708</v>
       </c>
       <c r="O14">
-        <v>1.12538959484732</v>
+        <v>1.308748364240216</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.727365347151931</v>
+        <v>2.29493245576424</v>
       </c>
       <c r="C15">
-        <v>0.186494207606728</v>
+        <v>0.398840200950076</v>
       </c>
       <c r="D15">
-        <v>0.02677900777486997</v>
+        <v>0.08450608591336106</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3877375529953255</v>
+        <v>0.5457891843229348</v>
       </c>
       <c r="G15">
-        <v>0.2377155301605427</v>
+        <v>0.4018787256773919</v>
       </c>
       <c r="H15">
-        <v>0.3669431071829621</v>
+        <v>0.2345256052263522</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.371817717419873</v>
+        <v>5.048008335723921</v>
       </c>
       <c r="N15">
-        <v>0.8291776609478632</v>
+        <v>0.3830722708080216</v>
       </c>
       <c r="O15">
-        <v>1.12348415514478</v>
+        <v>1.296133462516053</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6827974052305876</v>
+        <v>2.156590163339501</v>
       </c>
       <c r="C16">
-        <v>0.1799541082153553</v>
+        <v>0.3807073378664256</v>
       </c>
       <c r="D16">
-        <v>0.02513457720902323</v>
+        <v>0.07935712411421036</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3816594301615339</v>
+        <v>0.5136497768059911</v>
       </c>
       <c r="G16">
-        <v>0.2329435320819044</v>
+        <v>0.3766499388986659</v>
       </c>
       <c r="H16">
-        <v>0.3667545983951612</v>
+        <v>0.2262245177688413</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.291986231332586</v>
+        <v>4.640935052086888</v>
       </c>
       <c r="N16">
-        <v>0.8353893025650407</v>
+        <v>0.3993827249495112</v>
       </c>
       <c r="O16">
-        <v>1.11282346171825</v>
+        <v>1.225048693617623</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6554109242825916</v>
+        <v>2.071606759865318</v>
       </c>
       <c r="C17">
-        <v>0.175931577042121</v>
+        <v>0.3695175402085056</v>
       </c>
       <c r="D17">
-        <v>0.02412419083734818</v>
+        <v>0.07619594055683621</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3780054821158387</v>
+        <v>0.4942744731661719</v>
       </c>
       <c r="G17">
-        <v>0.2300715383415763</v>
+        <v>0.3614889418344944</v>
       </c>
       <c r="H17">
-        <v>0.3666939328959984</v>
+        <v>0.221299732674396</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.243211798953737</v>
+        <v>4.399483218900954</v>
       </c>
       <c r="N17">
-        <v>0.8393112133709906</v>
+        <v>0.40968708077461</v>
       </c>
       <c r="O17">
-        <v>1.106513895326373</v>
+        <v>1.182459718477332</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6396426622316937</v>
+        <v>2.022687026839549</v>
       </c>
       <c r="C18">
-        <v>0.1736141937588798</v>
+        <v>0.3630595299611912</v>
       </c>
       <c r="D18">
-        <v>0.02354247619299343</v>
+        <v>0.0743768476762483</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3759312822167544</v>
+        <v>0.483248400768737</v>
       </c>
       <c r="G18">
-        <v>0.2284399711133887</v>
+        <v>0.3528776465344379</v>
       </c>
       <c r="H18">
-        <v>0.3666792397170013</v>
+        <v>0.2185258194949853</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.215229162080149</v>
+        <v>4.263286563179406</v>
       </c>
       <c r="N18">
-        <v>0.8416078707879748</v>
+        <v>0.4157211969234496</v>
       </c>
       <c r="O18">
-        <v>1.102969344761902</v>
+        <v>1.158316744269086</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6343010444263086</v>
+        <v>2.006117066573978</v>
       </c>
       <c r="C19">
-        <v>0.17282893548267</v>
+        <v>0.3608693865005819</v>
       </c>
       <c r="D19">
-        <v>0.02334542153770514</v>
+        <v>0.07376078847467227</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3752337063899773</v>
+        <v>0.4795347838697595</v>
       </c>
       <c r="G19">
-        <v>0.2278910362272057</v>
+        <v>0.3499800619726159</v>
       </c>
       <c r="H19">
-        <v>0.3666777338099223</v>
+        <v>0.2175964353980504</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.205766729017441</v>
+        <v>4.217602028408891</v>
       </c>
       <c r="N19">
-        <v>0.8423924991671399</v>
+        <v>0.4177824532790098</v>
       </c>
       <c r="O19">
-        <v>1.101783728746398</v>
+        <v>1.150201047127524</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.658327956938308</v>
+        <v>2.080657531583455</v>
       </c>
       <c r="C20">
-        <v>0.1763601703812014</v>
+        <v>0.3707110309894119</v>
       </c>
       <c r="D20">
-        <v>0.02423180720340667</v>
+        <v>0.07653254405002485</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.378391609060543</v>
+        <v>0.496324626641595</v>
       </c>
       <c r="G20">
-        <v>0.2303751618311622</v>
+        <v>0.3630914269214571</v>
       </c>
       <c r="H20">
-        <v>0.3666983001184718</v>
+        <v>0.2218178461766485</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.24839650937912</v>
+        <v>4.424901250225247</v>
       </c>
       <c r="N20">
-        <v>0.8388894882607119</v>
+        <v>0.408579003659824</v>
       </c>
       <c r="O20">
-        <v>1.107176806298696</v>
+        <v>1.186956377974639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7388574942246464</v>
+        <v>2.330611517201419</v>
       </c>
       <c r="C21">
-        <v>0.1881794471310911</v>
+        <v>0.4034993177463662</v>
       </c>
       <c r="D21">
-        <v>0.02720306701489505</v>
+        <v>0.08583463946668246</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3893299479120742</v>
+        <v>0.5541986881965784</v>
       </c>
       <c r="G21">
-        <v>0.2389647637010199</v>
+        <v>0.4084962442793199</v>
       </c>
       <c r="H21">
-        <v>0.3670087772532895</v>
+        <v>0.2367231184597927</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.39249217817077</v>
+        <v>5.155992400989604</v>
       </c>
       <c r="N21">
-        <v>0.8276083488095693</v>
+        <v>0.3789553715184653</v>
       </c>
       <c r="O21">
-        <v>1.126307884377013</v>
+        <v>1.314819728121051</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7913339541170785</v>
+        <v>2.493549322984165</v>
       </c>
       <c r="C22">
-        <v>0.1958689183335593</v>
+        <v>0.4246793433501637</v>
       </c>
       <c r="D22">
-        <v>0.0291396078243622</v>
+        <v>0.09190521431952448</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3967238620839524</v>
+        <v>0.5932370390879882</v>
       </c>
       <c r="G22">
-        <v>0.2447608187170403</v>
+        <v>0.4393027357071304</v>
       </c>
       <c r="H22">
-        <v>0.3673916650842841</v>
+        <v>0.2470522299026925</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.487348101450095</v>
+        <v>5.666180090255679</v>
       </c>
       <c r="N22">
-        <v>0.8205997816700474</v>
+        <v>0.3605991607051067</v>
       </c>
       <c r="O22">
-        <v>1.139566877046434</v>
+        <v>1.402010009417978</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7633408414161522</v>
+        <v>2.406629426860832</v>
       </c>
       <c r="C23">
-        <v>0.1917682071162403</v>
+        <v>0.4134010385327542</v>
       </c>
       <c r="D23">
-        <v>0.02810654350477648</v>
+        <v>0.08866613375580101</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3927551374498748</v>
+        <v>0.5722818611488378</v>
       </c>
       <c r="G23">
-        <v>0.2416506189734235</v>
+        <v>0.4227485961835526</v>
       </c>
       <c r="H23">
-        <v>0.3671708384857624</v>
+        <v>0.2414822156864176</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.4366570470808</v>
+        <v>5.390431749045106</v>
       </c>
       <c r="N23">
-        <v>0.8243070360683618</v>
+        <v>0.3703020417165561</v>
       </c>
       <c r="O23">
-        <v>1.132421015553007</v>
+        <v>1.355117970023912</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6570092392864808</v>
+        <v>2.076565869063614</v>
       </c>
       <c r="C24">
-        <v>0.1761664181888705</v>
+        <v>0.3701715306654023</v>
       </c>
       <c r="D24">
-        <v>0.0241831564266235</v>
+        <v>0.07638037085373384</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3782169585229767</v>
+        <v>0.4953974018527774</v>
       </c>
       <c r="G24">
-        <v>0.2302378326774743</v>
+        <v>0.3623666181769352</v>
       </c>
       <c r="H24">
-        <v>0.3666962628288104</v>
+        <v>0.2215834289265075</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.246052320310824</v>
+        <v>4.413401690781882</v>
       </c>
       <c r="N24">
-        <v>0.8390800196811838</v>
+        <v>0.4090796232378651</v>
       </c>
       <c r="O24">
-        <v>1.10687684605486</v>
+        <v>1.184922378032752</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5416959624907065</v>
+        <v>1.719029788370818</v>
       </c>
       <c r="C25">
-        <v>0.1591958358306584</v>
+        <v>0.3227176190052887</v>
       </c>
       <c r="D25">
-        <v>0.01992962688948552</v>
+        <v>0.06309485745345</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3635843719167298</v>
+        <v>0.4169091471247128</v>
       </c>
       <c r="G25">
-        <v>0.2187036582495665</v>
+        <v>0.3013298868290804</v>
       </c>
       <c r="H25">
-        <v>0.3669565714952654</v>
+        <v>0.202334532971534</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.043146084565535</v>
+        <v>3.45959826093511</v>
       </c>
       <c r="N25">
-        <v>0.8565778325861473</v>
+        <v>0.4549801998332015</v>
       </c>
       <c r="O25">
-        <v>1.082553779536084</v>
+        <v>1.01463143572613</v>
       </c>
     </row>
   </sheetData>
